--- a/resources/conf/Tabella_Booleana_valori_significativi.xlsx
+++ b/resources/conf/Tabella_Booleana_valori_significativi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariolepore/PycharmProjects/bio_ml_project/resources/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1C2A88-345E-0C49-A17B-7703E87C0E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD4C474-8431-2F4E-9C33-85DA6D5D44EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21800" windowHeight="12980" xr2:uid="{563A5BD8-429E-4731-B8DC-99779208CD38}"/>
   </bookViews>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF253876-463B-4E82-9203-0596A96BBE72}">
   <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1:BA1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -578,8 +578,8 @@
     <col min="45" max="45" width="29.33203125" customWidth="1"/>
     <col min="46" max="46" width="24.5" customWidth="1"/>
     <col min="47" max="47" width="22.33203125" customWidth="1"/>
-    <col min="48" max="48" width="20" customWidth="1"/>
-    <col min="49" max="49" width="18.83203125" customWidth="1"/>
+    <col min="48" max="48" width="24.5" customWidth="1"/>
+    <col min="49" max="49" width="26.5" customWidth="1"/>
     <col min="50" max="50" width="22.6640625" customWidth="1"/>
     <col min="51" max="51" width="25" customWidth="1"/>
     <col min="52" max="52" width="22" customWidth="1"/>
@@ -760,18 +760,15 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
       <c r="Q2">
         <v>1</v>
       </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
       <c r="U2">
         <v>1</v>
       </c>
@@ -790,13 +787,52 @@
       <c r="Z2">
         <v>1</v>
       </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
       <c r="AI2">
         <v>1</v>
       </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
       <c r="AM2">
         <v>1</v>
       </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
       <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
         <v>1</v>
       </c>
     </row>
@@ -804,6 +840,12 @@
       <c r="A3" t="s">
         <v>34</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="H3">
         <v>1</v>
       </c>
@@ -828,13 +870,61 @@
       <c r="O3">
         <v>1</v>
       </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
       <c r="S3">
         <v>1</v>
       </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
       <c r="AK3">
         <v>1</v>
       </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
       <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3">
         <v>1</v>
       </c>
     </row>
@@ -842,12 +932,24 @@
       <c r="A4" t="s">
         <v>36</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <v>1</v>
       </c>
@@ -860,10 +962,58 @@
       <c r="Q4">
         <v>1</v>
       </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
       <c r="AL4">
         <v>1</v>
       </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
       <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
         <v>1</v>
       </c>
     </row>
